--- a/Research/Plush Interpreter Worksheet.xlsx
+++ b/Research/Plush Interpreter Worksheet.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c51537410c5afe56/Projects/Source/Repos/EdGarrity/SOS/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\Documents\Source\Repo\SOS\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="874" documentId="8_{88118BAD-FCDB-4ECA-9F05-FCE030141EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7425DD2D-1E78-409E-86B8-67EED494CA0D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65064593-6A3C-44A1-998C-7815A8E5E4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
   <si>
     <t>Index</t>
   </si>
@@ -1142,6 +1144,129 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{:instruction 0 :close 0}</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>noop_open_paren</t>
+  </si>
+  <si>
+    <t>exec_do*range</t>
+  </si>
+  <si>
+    <t>exec_do*count</t>
+  </si>
+  <si>
+    <t>exec_do*times</t>
+  </si>
+  <si>
+    <t>exec_while</t>
+  </si>
+  <si>
+    <t>exec_do*while</t>
+  </si>
+  <si>
+    <t>code_quote</t>
+  </si>
+  <si>
+    <t>exec_if</t>
+  </si>
+  <si>
+    <t>exec_when</t>
+  </si>
+  <si>
+    <t>exec_k</t>
+  </si>
+  <si>
+    <t>exec_s</t>
+  </si>
+  <si>
+    <t>exec_y</t>
+  </si>
+  <si>
+    <t>exec_pop</t>
+  </si>
+  <si>
+    <t>exec_dup</t>
+  </si>
+  <si>
+    <t>exec_dup_times</t>
+  </si>
+  <si>
+    <t>exec_dup_items</t>
+  </si>
+  <si>
+    <t>exec_swap</t>
+  </si>
+  <si>
+    <t>exec_rot</t>
+  </si>
+  <si>
+    <t>exec_eq</t>
+  </si>
+  <si>
+    <t>exec_yank</t>
+  </si>
+  <si>
+    <t>exec_yankdup</t>
+  </si>
+  <si>
+    <t>exec_shove</t>
+  </si>
+  <si>
+    <t>exec_string_iterate</t>
+  </si>
+  <si>
+    <t>exec_do*vector_integer</t>
+  </si>
+  <si>
+    <t>exec_do*vector_float</t>
+  </si>
+  <si>
+    <t>exec_do*vector_boolean</t>
+  </si>
+  <si>
+    <t>exec_do*vector_string</t>
+  </si>
+  <si>
+    <t>zip_replace_fromexec</t>
+  </si>
+  <si>
+    <t>zip_insert_right_fromexec</t>
+  </si>
+  <si>
+    <t>zip_insert_left_fromexec</t>
+  </si>
+  <si>
+    <t>zip_insert_child_fromexec</t>
+  </si>
+  <si>
+    <t>zip_append_child_fromexec</t>
+  </si>
+  <si>
+    <t>zip_fromexec</t>
+  </si>
+  <si>
+    <t>iflte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exec_if </t>
+  </si>
+  <si>
+    <t>{:instruction EXEC.IF :close 0}</t>
+  </si>
+  <si>
+    <t>{:instruction 123 :close 1}</t>
+  </si>
+  <si>
+    <t>{:instruction 99.6 :close 1}</t>
   </si>
 </sst>
 </file>
@@ -1515,31 +1640,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC4F167-6FF8-46B8-B986-15824370BF3F}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="9" width="6.21875" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" customWidth="1"/>
-    <col min="11" max="13" width="6.21875" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="18" width="6.21875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="8" max="9" width="6.25" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="13" width="6.25" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="18" width="6.25" style="2" customWidth="1"/>
+    <col min="19" max="19" width="76.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>A3+1</f>
         <v>5</v>
@@ -1628,7 +1753,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A4+1</f>
         <v>4</v>
@@ -1688,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A5+1</f>
         <v>3</v>
@@ -1748,7 +1873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A6+1</f>
         <v>2</v>
@@ -1808,7 +1933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A7+1</f>
         <v>1</v>
@@ -1868,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1927,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="2"/>
@@ -1939,7 +2064,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="2"/>
@@ -1951,7 +2076,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A11+1</f>
         <v>3</v>
@@ -1985,7 +2110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A12+1</f>
         <v>2</v>
@@ -2053,7 +2178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A13+1</f>
         <v>1</v>
@@ -2119,7 +2244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2186,7 +2311,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="2"/>
@@ -2198,7 +2323,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="2"/>
@@ -2210,7 +2335,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>A17+1</f>
         <v>2</v>
@@ -2244,7 +2369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>A18+1</f>
         <v>1</v>
@@ -2312,7 +2437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2379,7 +2504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="2"/>
@@ -2391,7 +2516,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="2"/>
@@ -2403,7 +2528,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>A22+1</f>
         <v>12</v>
@@ -2434,7 +2559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>A23+1</f>
         <v>11</v>
@@ -2501,7 +2626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A24+1</f>
         <v>10</v>
@@ -2566,7 +2691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>A27+1</f>
         <v>9</v>
@@ -2634,7 +2759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="G25">
         <v>0</v>
@@ -2659,7 +2784,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="G26">
         <v>0</v>
@@ -2684,7 +2809,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ref="A27:A32" si="37">A28+1</f>
         <v>8</v>
@@ -2749,7 +2874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="37"/>
         <v>7</v>
@@ -2817,7 +2942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="37"/>
         <v>6</v>
@@ -2882,7 +3007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="37"/>
         <v>5</v>
@@ -2950,7 +3075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="37"/>
         <v>4</v>
@@ -3015,7 +3140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="37"/>
         <v>3</v>
@@ -3083,7 +3208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A35+1</f>
         <v>2</v>
@@ -3151,7 +3276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="G34">
         <v>2</v>
@@ -3176,7 +3301,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>A38+1</f>
         <v>1</v>
@@ -3244,7 +3369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="G36">
         <v>2</v>
@@ -3269,7 +3394,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="G37">
         <v>2</v>
@@ -3294,7 +3419,7 @@
         <v>CO</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3358,7 +3483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A41+1</f>
         <v>13</v>
@@ -3389,7 +3514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>A42+1</f>
         <v>12</v>
@@ -3456,7 +3581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>A43+1</f>
         <v>11</v>
@@ -3521,7 +3646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>A46+1</f>
         <v>10</v>
@@ -3589,7 +3714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="G44">
         <v>0</v>
@@ -3614,7 +3739,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="G45">
         <v>0</v>
@@ -3639,7 +3764,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>A47+1</f>
         <v>9</v>
@@ -3700,7 +3825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>A49+1</f>
         <v>8</v>
@@ -3768,7 +3893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="G48">
         <v>1</v>
@@ -3793,7 +3918,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>A50+1</f>
         <v>7</v>
@@ -3861,7 +3986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>A51+1</f>
         <v>6</v>
@@ -3926,7 +4051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>A52+1</f>
         <v>5</v>
@@ -3994,7 +4119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>A53+1</f>
         <v>4</v>
@@ -4059,7 +4184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>A54+1</f>
         <v>3</v>
@@ -4127,7 +4252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>A56+1</f>
         <v>2</v>
@@ -4195,7 +4320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="G55">
         <v>2</v>
@@ -4220,7 +4345,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>A57+1</f>
         <v>1</v>
@@ -4288,7 +4413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -4350,6 +4475,95 @@
       </c>
       <c r="S57" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" ref="A60:A62" si="79">A61+1</f>
+        <v>4</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="79"/>
+        <v>3</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="79"/>
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C61:C64" si="80">C61+1</f>
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>A64+1</f>
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="80"/>
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="80"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4362,14 +4576,313 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253EEE7-D488-46E5-8885-B234E3263687}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
+    <sortCondition ref="A2:A35"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE9F5D3-2FDC-4767-A2E6-FE1C44D6AF85}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>12</v>
       </c>
@@ -4377,7 +4890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -4385,7 +4898,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4393,7 +4906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -4401,7 +4914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4409,7 +4922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -4417,7 +4930,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4425,7 +4938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4433,7 +4946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4441,7 +4954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4449,7 +4962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4457,7 +4970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4471,4 +4984,30 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31008868-9FAE-4AD5-8830-A05337EF61FC}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView zoomScale="313" zoomScaleNormal="313" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1">
+        <v>123</v>
+      </c>
+      <c r="C1">
+        <v>99.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Research/Plush Interpreter Worksheet.xlsx
+++ b/Research/Plush Interpreter Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\Documents\Source\Repo\SOS\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65064593-6A3C-44A1-998C-7815A8E5E4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9943392F-495A-46DB-B677-D3A4CC2F006D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
   <si>
     <t>Index</t>
   </si>
@@ -1642,9 +1642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC4F167-6FF8-46B8-B986-15824370BF3F}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4551,19 +4551,109 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K66" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L66" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M66" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <f>D67-E67</f>
+        <v>2</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67" si="81">IF(LEN($H66)&gt;0,K66,IF(LEN($I66)&gt;0," ",J66))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67" si="82">IF(LEN($H66)&gt;0,L66,IF(LEN($I66)&gt;0,J66,K66))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67" si="83">IF(LEN($H66)&gt;0,M66,IF(LEN($I66)&gt;0,K66,L66))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67" si="84">IF(LEN($H66)&gt;0,$H66,IF(LEN($I66)&gt;0,L66,M66))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N67">
+        <f>IF(AND(D67&gt;0,D67&gt;F67),D67-F67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <f>IF(AND(G66=0,G67=1),1,IF(AND(G67=1,M66="CO",I66="X"),1,IF(AND(F66&gt;0,G67=1),1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <f t="shared" ref="P67" si="85">IF(AND(I67="X",G67=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <f>Q66+O67+N67</f>
+        <v>0</v>
+      </c>
+      <c r="R67" s="2">
+        <f>IF(AND(D67=0,G67=0),R66+1,R66+O67+N67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>124</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69" si="86">C68+1</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +4669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253EEE7-D488-46E5-8885-B234E3263687}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Research/Plush Interpreter Worksheet.xlsx
+++ b/Research/Plush Interpreter Worksheet.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\Documents\Source\Repo\SOS\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9943392F-495A-46DB-B677-D3A4CC2F006D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4CD57-F6B0-4F6A-9DCD-16B14C9EFB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Blocks Wanted" sheetId="3" r:id="rId1"/>
+    <sheet name="Block Processor" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +35,144 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Edward Garrity</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7BA97DDD-9A91-42F5-8921-0412128E147E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edward Garrity:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+EXEC stack before call to process instruction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{212A12C4-4C82-4B5E-98F0-8E8155A97F3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edward Garrity:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+How many blocks to auto reopen - 1.  State before call to process instruction.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9374FBF2-863B-48CD-BC94-2755764F0F77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edward Garrity
+What PopBlock() returns while processing instruction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B25E98CA-F64E-42AD-9568-E78384D85596}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edward Garrity:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+What is left on EXEC stack after PopBlock()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{62E3FE6C-5D73-421E-8797-EC40C5C04FED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edward Garrity
+What PopBlock() returns while processing instruction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{78A09EDC-25F2-448B-93D2-23F85795F62A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edward Garrity:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+What is left on EXEC stack after PopBlock()</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
   <si>
     <t>Index</t>
   </si>
@@ -1257,9 +1393,6 @@
     <t>iflte</t>
   </si>
   <si>
-    <t xml:space="preserve">exec_if </t>
-  </si>
-  <si>
     <t>{:instruction EXEC.IF :close 0}</t>
   </si>
   <si>
@@ -1267,13 +1400,43 @@
   </si>
   <si>
     <t>{:instruction 99.6 :close 1}</t>
+  </si>
+  <si>
+    <t>Blocks Wanted</t>
+  </si>
+  <si>
+    <t>Exec Stack</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>PopBlock_1()</t>
+  </si>
+  <si>
+    <t>Missing Closes 1</t>
+  </si>
+  <si>
+    <t>EXEC After Pop 1</t>
+  </si>
+  <si>
+    <t>PopBlock_2()</t>
+  </si>
+  <si>
+    <t>Missing Closes 2</t>
+  </si>
+  <si>
+    <t>EXEC After Pop 2</t>
+  </si>
+  <si>
+    <t>2.0 3 EXEC.Y 2.0 FLOAT.* 1 INTEGER.- INTEGER.DUP 0 INTEGER.&gt; EXEC.IF) EXEC.POP  1.0 FLOAT.-))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,6 +1461,19 @@
       <color rgb="FF009999"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1341,6 +1517,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1639,10 +1819,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253EEE7-D488-46E5-8885-B234E3263687}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
+    <sortCondition ref="A2:A35"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31008868-9FAE-4AD5-8830-A05337EF61FC}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="237" zoomScaleNormal="237" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC4F167-6FF8-46B8-B986-15824370BF3F}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
@@ -4516,7 +5104,7 @@
         <v>80</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C61:C64" si="80">C61+1</f>
+        <f t="shared" ref="C62:C64" si="80">C61+1</f>
         <v>1</v>
       </c>
       <c r="D62">
@@ -4580,7 +5168,7 @@
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -4641,7 +5229,7 @@
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4649,7 +5237,7 @@
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C69">
         <f t="shared" ref="C69" si="86">C68+1</f>
@@ -4665,308 +5253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253EEE7-D488-46E5-8885-B234E3263687}">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
-    <sortCondition ref="A2:A35"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE9F5D3-2FDC-4767-A2E6-FE1C44D6AF85}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -5076,30 +5363,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31008868-9FAE-4AD5-8830-A05337EF61FC}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView zoomScale="313" zoomScaleNormal="313" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1">
-        <v>123</v>
-      </c>
-      <c r="C1">
-        <v>99.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Research/Plush Interpreter Worksheet.xlsx
+++ b/Research/Plush Interpreter Worksheet.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\Documents\Source\Repo\SOS\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4CD57-F6B0-4F6A-9DCD-16B14C9EFB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA48E6-38AA-4DEC-9C80-44791D5A036D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks Wanted" sheetId="3" r:id="rId1"/>
     <sheet name="Block Processor" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -172,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="148">
   <si>
     <t>Index</t>
   </si>
@@ -1430,6 +1431,48 @@
   </si>
   <si>
     <t>2.0 3 EXEC.Y 2.0 FLOAT.* 1 INTEGER.- INTEGER.DUP 0 INTEGER.&gt; EXEC.IF) EXEC.POP  1.0 FLOAT.-))</t>
+  </si>
+  <si>
+    <t>{:instruction EXEC.NOOP_OPEN_PAREN :close 0}</t>
+  </si>
+  <si>
+    <t>{:instruction 1.0 :close 0}</t>
+  </si>
+  <si>
+    <t>{:instruction 1.1 :close 0}</t>
+  </si>
+  <si>
+    <t>{:instruction 1.2 :close 1}</t>
+  </si>
+  <si>
+    <t>{:instruction 2.0 :close 0}</t>
+  </si>
+  <si>
+    <t>{:instruction 2.1 :close 1}</t>
+  </si>
+  <si>
+    <t>{:instruction 3.0 :close 2}</t>
+  </si>
+  <si>
+    <t>{:instruction 1 :close 1}</t>
+  </si>
+  <si>
+    <t>{:instruction CODE.NTHCDR :close 1}</t>
+  </si>
+  <si>
+    <t>block_number</t>
+  </si>
+  <si>
+    <t>wanted_stack</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>()(</t>
+  </si>
+  <si>
+    <t>0,1</t>
   </si>
 </sst>
 </file>
@@ -1496,11 +1539,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1517,10 +1563,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1822,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253EEE7-D488-46E5-8885-B234E3263687}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0"/>
+    <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2121,10 +2163,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31008868-9FAE-4AD5-8830-A05337EF61FC}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="237" zoomScaleNormal="237" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2227,12 +2269,167 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C94DFA-6C6F-4651-8240-87F9ED788928}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC4F167-6FF8-46B8-B986-15824370BF3F}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -5253,7 +5450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE9F5D3-2FDC-4767-A2E6-FE1C44D6AF85}">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/Research/Plush Interpreter Worksheet.xlsx
+++ b/Research/Plush Interpreter Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\Documents\Source\Repo\SOS\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA48E6-38AA-4DEC-9C80-44791D5A036D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D817C3-EC6A-434F-B3F0-EBDBD8B64D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
   <si>
     <t>Index</t>
   </si>
@@ -1451,28 +1451,16 @@
     <t>{:instruction 2.1 :close 1}</t>
   </si>
   <si>
-    <t>{:instruction 3.0 :close 2}</t>
-  </si>
-  <si>
-    <t>{:instruction 1 :close 1}</t>
-  </si>
-  <si>
-    <t>{:instruction CODE.NTHCDR :close 1}</t>
-  </si>
-  <si>
-    <t>block_number</t>
-  </si>
-  <si>
     <t>wanted_stack</t>
   </si>
   <si>
     <t>Hidden</t>
   </si>
   <si>
-    <t>()(</t>
-  </si>
-  <si>
-    <t>0,1</t>
+    <t>item_number</t>
+  </si>
+  <si>
+    <t>-1,1</t>
   </si>
 </sst>
 </file>
@@ -1539,13 +1527,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2270,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C94DFA-6C6F-4651-8240-87F9ED788928}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2289,13 +2280,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,8 +2308,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>147</v>
+      <c r="D3" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,8 +2319,8 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>147</v>
+      <c r="D4" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2339,8 +2330,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>147</v>
+      <c r="D5" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2351,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2359,63 +2350,21 @@
         <v>138</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Research/Plush Interpreter Worksheet.xlsx
+++ b/Research/Plush Interpreter Worksheet.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\Documents\Source\Repo\SOS\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D817C3-EC6A-434F-B3F0-EBDBD8B64D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3220ABB8-3B3A-4931-84EA-1BC3D23DD131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blocks Wanted" sheetId="3" r:id="rId1"/>
-    <sheet name="Block Processor" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Subst" sheetId="6" r:id="rId1"/>
+    <sheet name="Blocks Wanted" sheetId="3" r:id="rId2"/>
+    <sheet name="Block Processor" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -173,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="154">
   <si>
     <t>Index</t>
   </si>
@@ -1461,6 +1462,36 @@
   </si>
   <si>
     <t>-1,1</t>
+  </si>
+  <si>
+    <t>{:instruction EXEC.NOOP_OPEN_PAREN :close 0}\</t>
+  </si>
+  <si>
+    <t>{:instruction EXEC.DO*RANGE :close 0}\</t>
+  </si>
+  <si>
+    <t>{:instruction FLOAT.+ :close 2}\</t>
+  </si>
+  <si>
+    <t>{:instruction FLOAT.- :close 1}\</t>
+  </si>
+  <si>
+    <t>{:instruction FLOAT.+ :close 1}\</t>
+  </si>
+  <si>
+    <t>{:instruction CODE.SUBST :close 0}\</t>
+  </si>
+  <si>
+    <t>extra_blocks</t>
+  </si>
+  <si>
+    <t>closing</t>
+  </si>
+  <si>
+    <t>wanted_blocks</t>
+  </si>
+  <si>
+    <t>0, 1</t>
   </si>
 </sst>
 </file>
@@ -1852,6 +1883,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7015191-2302-41E8-813B-970F1634A532}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253EEE7-D488-46E5-8885-B234E3263687}">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -2150,7 +2317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31008868-9FAE-4AD5-8830-A05337EF61FC}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -2259,11 +2426,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C94DFA-6C6F-4651-8240-87F9ED788928}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2372,7 +2539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC4F167-6FF8-46B8-B986-15824370BF3F}">
   <dimension ref="A1:S69"/>
   <sheetViews>
@@ -5399,7 +5566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE9F5D3-2FDC-4767-A2E6-FE1C44D6AF85}">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/Research/Plush Interpreter Worksheet.xlsx
+++ b/Research/Plush Interpreter Worksheet.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\Documents\Source\Repo\SOS\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3220ABB8-3B3A-4931-84EA-1BC3D23DD131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8980DB81-9FF5-4205-8D99-E80526B895FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{B91C377E-2224-4425-BBEB-A131CFB58DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Subst" sheetId="6" r:id="rId1"/>
-    <sheet name="Blocks Wanted" sheetId="3" r:id="rId2"/>
-    <sheet name="Block Processor" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Shove Stack" sheetId="7" r:id="rId2"/>
+    <sheet name="Blocks Wanted" sheetId="3" r:id="rId3"/>
+    <sheet name="Block Processor" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="166">
   <si>
     <t>Index</t>
   </si>
@@ -1492,6 +1493,42 @@
   </si>
   <si>
     <t>0, 1</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Top = 3</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7015191-2302-41E8-813B-970F1634A532}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2019,6 +2056,201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F018C1A-307C-423F-80CA-32BA48222A8F}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3">
+        <f>H2+1</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="1">H3+1</f>
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253EEE7-D488-46E5-8885-B234E3263687}">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -2317,7 +2549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31008868-9FAE-4AD5-8830-A05337EF61FC}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -2426,7 +2658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C94DFA-6C6F-4651-8240-87F9ED788928}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2539,7 +2771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC4F167-6FF8-46B8-B986-15824370BF3F}">
   <dimension ref="A1:S69"/>
   <sheetViews>
@@ -5566,7 +5798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE9F5D3-2FDC-4767-A2E6-FE1C44D6AF85}">
   <dimension ref="A1:B12"/>
   <sheetViews>
